--- a/Data/EC/NIT-8050110742.xlsx
+++ b/Data/EC/NIT-8050110742.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDA6280C-405C-4D65-BB2C-5D2325BF9FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE2C1200-194B-4916-B0A0-0C66C9C89E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BF6506D6-FA17-4591-8551-B90DA09FC955}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1648CBBD-8E22-4EE8-B5E0-5555594C910F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,6 +71,267 @@
     <t>VIVIANA RODRIGUEZ CORREA</t>
   </si>
   <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
     <t>1610</t>
   </si>
   <si>
@@ -78,267 +339,6 @@
   </si>
   <si>
     <t>EDGAR ALEXANDER TAUTIVA CASALLAS</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -752,7 +752,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54981607-9EE9-71F4-1740-619B0989ED74}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6C5B0C4-23A6-9FD9-6377-FB074F315504}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1103,7 +1103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6845F693-266D-4E03-9FC1-209D3C6815D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A97500D-A929-453D-B7C9-BDB0DEEF94C7}">
   <dimension ref="B2:J111"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1281,7 +1281,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>36400</v>
+        <v>21840</v>
       </c>
       <c r="G16" s="18">
         <v>910000</v>
@@ -1295,19 +1295,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F17" s="18">
-        <v>42000</v>
+        <v>36400</v>
       </c>
       <c r="G17" s="18">
-        <v>1135231</v>
+        <v>910000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1324,7 +1324,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
         <v>36400</v>
@@ -1341,19 +1341,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>42000</v>
+        <v>36400</v>
       </c>
       <c r="G19" s="18">
-        <v>1135231</v>
+        <v>910000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -3296,19 +3296,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F104" s="18">
-        <v>36400</v>
+        <v>42000</v>
       </c>
       <c r="G104" s="18">
-        <v>910000</v>
+        <v>1135231</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3319,19 +3319,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="22" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="D105" s="23" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E105" s="22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F105" s="24">
-        <v>21840</v>
+        <v>42000</v>
       </c>
       <c r="G105" s="24">
-        <v>910000</v>
+        <v>1135231</v>
       </c>
       <c r="H105" s="25"/>
       <c r="I105" s="25"/>
